--- a/Symphony/2021/June/All Details/28.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/28.06.2021/MC Bank Statement June-2021.xlsx
@@ -9720,11 +9720,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9739,6 +9734,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33099,7 +33099,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
